--- a/Protocol poverki/Testiruem/Копия_Термометр_стеклянный_(1)_редактированный — копия(2).xlsx
+++ b/Protocol poverki/Testiruem/Копия_Термометр_стеклянный_(1)_редактированный — копия(2).xlsx
@@ -1421,7 +1421,7 @@
       <c r="AK5" s="89" t="n"/>
       <c r="AL5" s="82" t="inlineStr">
         <is>
-          <t>{{SERIAL_NUMBER}}</t>
+          <t>0...5</t>
         </is>
       </c>
       <c r="AM5" s="45" t="n"/>
@@ -1499,7 +1499,7 @@
       <c r="AK6" s="89" t="n"/>
       <c r="AL6" s="82" t="inlineStr">
         <is>
-          <t>{{MANUFACTURE_YEAR}}</t>
+          <t>sdsdsd</t>
         </is>
       </c>
       <c r="AM6" s="45" t="n"/>
@@ -1811,7 +1811,7 @@
       <c r="AK10" s="89" t="n"/>
       <c r="AL10" s="82" t="inlineStr">
         <is>
-          <t>0...5</t>
+          <t>{{MEASUREMENT_LIMITS}}</t>
         </is>
       </c>
       <c r="AM10" s="45" t="n"/>

--- a/Protocol poverki/Testiruem/Копия_Термометр_стеклянный_(1)_редактированный — копия(2).xlsx
+++ b/Protocol poverki/Testiruem/Копия_Термометр_стеклянный_(1)_редактированный — копия(2).xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Протокол" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Протокол" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Протокол'!$A$1:$BP$45</definedName>
@@ -1343,7 +1343,7 @@
       <c r="AK4" s="119" t="n"/>
       <c r="AL4" s="82" t="inlineStr">
         <is>
-          <t>sdsdsd</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AM4" s="45" t="n"/>
@@ -1421,7 +1421,7 @@
       <c r="AK5" s="89" t="n"/>
       <c r="AL5" s="82" t="inlineStr">
         <is>
-          <t>0...5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AM5" s="45" t="n"/>
@@ -1499,7 +1499,7 @@
       <c r="AK6" s="89" t="n"/>
       <c r="AL6" s="82" t="inlineStr">
         <is>
-          <t>sdsdsd</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AM6" s="45" t="n"/>
@@ -1653,10 +1653,8 @@
       <c r="AI8" s="88" t="n"/>
       <c r="AJ8" s="88" t="n"/>
       <c r="AK8" s="89" t="n"/>
-      <c r="AL8" s="82" t="inlineStr">
-        <is>
-          <t>{{INTERVAL}}</t>
-        </is>
+      <c r="AL8" s="82" t="n">
+        <v>4</v>
       </c>
       <c r="AM8" s="45" t="n"/>
       <c r="AN8" s="45" t="n"/>
@@ -1733,7 +1731,7 @@
       <c r="AK9" s="89" t="n"/>
       <c r="AL9" s="82" t="inlineStr">
         <is>
-          <t>{{LAST_CALIBRATION}}</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AM9" s="45" t="n"/>
@@ -1811,7 +1809,7 @@
       <c r="AK10" s="89" t="n"/>
       <c r="AL10" s="82" t="inlineStr">
         <is>
-          <t>{{MEASUREMENT_LIMITS}}</t>
+          <t>0...50</t>
         </is>
       </c>
       <c r="AM10" s="45" t="n"/>
@@ -1887,10 +1885,8 @@
       <c r="AI11" s="88" t="n"/>
       <c r="AJ11" s="88" t="n"/>
       <c r="AK11" s="89" t="n"/>
-      <c r="AL11" s="82" t="inlineStr">
-        <is>
-          <t>{{DIVISION_PRICE}}</t>
-        </is>
+      <c r="AL11" s="82" t="n">
+        <v>1</v>
       </c>
       <c r="AM11" s="45" t="n"/>
       <c r="AN11" s="45" t="n"/>
@@ -2020,7 +2016,7 @@
       <c r="AY13" s="95" t="n"/>
       <c r="AZ13" s="85" t="inlineStr">
         <is>
-          <t>{{WORKSHOP}}</t>
+          <t>8</t>
         </is>
       </c>
       <c r="BA13" s="60" t="n"/>
@@ -2307,7 +2303,7 @@
       <c r="AK17" s="54" t="n"/>
       <c r="AL17" s="90" t="inlineStr">
         <is>
-          <t>{{AIR_TEMPERATURE}}</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AM17" s="53" t="n"/>
@@ -2389,7 +2385,7 @@
       <c r="AK18" s="119" t="n"/>
       <c r="AL18" s="59" t="inlineStr">
         <is>
-          <t>{{TIME}}</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AM18" s="60" t="n"/>
@@ -2660,7 +2656,7 @@
     <row r="22" ht="21" customFormat="1" customHeight="1" s="99">
       <c r="A22" s="124" t="inlineStr">
         <is>
-          <t>Указать СИ, используемые при выполнении калибровки в соответствии с п. 2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B22" s="125" t="n"/>
@@ -2875,7 +2871,7 @@
       <c r="AL24" s="30" t="n"/>
       <c r="AM24" s="44" t="inlineStr">
         <is>
-          <t>{{EXTERNAL_INSPECTION}}</t>
+          <t>соответствует</t>
         </is>
       </c>
       <c r="AN24" s="45" t="n"/>
@@ -3297,15 +3293,13 @@
       <c r="BP29" s="81" t="n"/>
       <c r="BR29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="30" ht="21" customFormat="1" customHeight="1" s="3">
-      <c r="A30" s="47" t="inlineStr">
-        <is>
-          <t>{{MEASUREMENTS_START}}</t>
-        </is>
+      <c r="A30" s="47" t="n">
+        <v>1</v>
       </c>
       <c r="B30" s="48" t="n"/>
       <c r="C30" s="48" t="n"/>
@@ -3358,9 +3352,8 @@
       <c r="AN30" s="48" t="n"/>
       <c r="AO30" s="48" t="n"/>
       <c r="AP30" s="49" t="n"/>
-      <c r="AQ30" s="34">
-        <f>SUM(K30:AP30)/5</f>
-        <v/>
+      <c r="AQ30" s="34" t="n">
+        <v>1.09</v>
       </c>
       <c r="AR30" s="35" t="n"/>
       <c r="AS30" s="35" t="n"/>
@@ -3369,9 +3362,8 @@
       <c r="AV30" s="35" t="n"/>
       <c r="AW30" s="35" t="n"/>
       <c r="AX30" s="36" t="n"/>
-      <c r="AY30" s="34">
-        <f>ABS(A30-AQ30)</f>
-        <v/>
+      <c r="AY30" s="34" t="n">
+        <v>0.0900000000000003</v>
       </c>
       <c r="AZ30" s="35" t="n"/>
       <c r="BA30" s="35" t="n"/>
@@ -3381,9 +3373,8 @@
       <c r="BE30" s="35" t="n"/>
       <c r="BF30" s="35" t="n"/>
       <c r="BG30" s="36" t="n"/>
-      <c r="BH30" s="135">
-        <f>$BU$22</f>
-        <v/>
+      <c r="BH30" s="135" t="n">
+        <v>0.75</v>
       </c>
       <c r="BI30" s="35" t="n"/>
       <c r="BJ30" s="35" t="n"/>
@@ -3449,9 +3440,8 @@
       <c r="AN31" s="48" t="n"/>
       <c r="AO31" s="48" t="n"/>
       <c r="AP31" s="49" t="n"/>
-      <c r="AQ31" s="34">
-        <f>SUM(K31:AP31)/5</f>
-        <v/>
+      <c r="AQ31" s="34" t="n">
+        <v>20.4</v>
       </c>
       <c r="AR31" s="35" t="n"/>
       <c r="AS31" s="35" t="n"/>
@@ -3460,9 +3450,8 @@
       <c r="AV31" s="35" t="n"/>
       <c r="AW31" s="35" t="n"/>
       <c r="AX31" s="36" t="n"/>
-      <c r="AY31" s="34">
-        <f>ABS(A31-AQ31)</f>
-        <v/>
+      <c r="AY31" s="34" t="n">
+        <v>0.3999999999999986</v>
       </c>
       <c r="AZ31" s="35" t="n"/>
       <c r="BA31" s="35" t="n"/>
@@ -3472,9 +3461,8 @@
       <c r="BE31" s="35" t="n"/>
       <c r="BF31" s="35" t="n"/>
       <c r="BG31" s="36" t="n"/>
-      <c r="BH31" s="135">
-        <f>$BU$22</f>
-        <v/>
+      <c r="BH31" s="135" t="n">
+        <v>0.75</v>
       </c>
       <c r="BI31" s="35" t="n"/>
       <c r="BJ31" s="35" t="n"/>
@@ -3782,11 +3770,7 @@
       <c r="BE35" s="35" t="n"/>
       <c r="BF35" s="35" t="n"/>
       <c r="BG35" s="36" t="n"/>
-      <c r="BH35" s="61" t="inlineStr">
-        <is>
-          <t>{{MEASUREMENTS_END}}</t>
-        </is>
-      </c>
+      <c r="BH35" s="61" t="inlineStr"/>
       <c r="BI35" s="35" t="n"/>
       <c r="BJ35" s="35" t="n"/>
       <c r="BK35" s="35" t="n"/>
@@ -3845,7 +3829,7 @@
       <c r="AL36" s="53" t="n"/>
       <c r="AM36" s="44" t="inlineStr">
         <is>
-          <t>{{ASSESSMENT}}</t>
+          <t>соответствует</t>
         </is>
       </c>
       <c r="AN36" s="45" t="n"/>
@@ -3893,7 +3877,7 @@
       </c>
       <c r="J38" s="115" t="inlineStr">
         <is>
-          <t>{{CONCLUSION}}</t>
+          <t>соответствует</t>
         </is>
       </c>
       <c r="K38" s="116" t="n"/>
@@ -3992,11 +3976,7 @@
       <c r="AH40" s="21" t="n"/>
       <c r="AI40" s="21" t="n"/>
       <c r="AJ40" s="21" t="n"/>
-      <c r="AK40" s="129" t="inlineStr">
-        <is>
-          <t>{{METROLOGIST}}</t>
-        </is>
-      </c>
+      <c r="AK40" s="129" t="inlineStr"/>
       <c r="AL40" s="116" t="n"/>
       <c r="AM40" s="116" t="n"/>
       <c r="AN40" s="116" t="n"/>
@@ -4177,11 +4157,7 @@
       <c r="S43" s="43" t="n"/>
       <c r="T43" s="43" t="n"/>
       <c r="U43" s="43" t="n"/>
-      <c r="V43" s="113" t="inlineStr">
-        <is>
-          <t>{{DATE}}</t>
-        </is>
-      </c>
+      <c r="V43" s="113" t="inlineStr"/>
       <c r="W43" s="64" t="n"/>
       <c r="X43" s="64" t="n"/>
       <c r="Y43" s="64" t="n"/>
@@ -4438,6 +4414,8 @@
       <c r="BO46" s="15" t="n"/>
       <c r="BP46" s="15" t="n"/>
     </row>
+    <row r="47"/>
+    <row r="48"/>
     <row r="49" ht="15.75" customHeight="1" s="41"/>
     <row r="50" ht="15.75" customHeight="1" s="41"/>
     <row r="51" ht="15" customHeight="1" s="41">

--- a/Protocol poverki/Testiruem/Копия_Термометр_стеклянный_(1)_редактированный — копия(2).xlsx
+++ b/Protocol poverki/Testiruem/Копия_Термометр_стеклянный_(1)_редактированный — копия(2).xlsx
@@ -1421,7 +1421,7 @@
       <c r="AK5" s="86" t="n"/>
       <c r="AL5" s="81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AM5" s="36" t="n"/>
@@ -1499,7 +1499,7 @@
       <c r="AK6" s="86" t="n"/>
       <c r="AL6" s="81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AM6" s="36" t="n"/>
@@ -1654,7 +1654,7 @@
       <c r="AJ8" s="85" t="n"/>
       <c r="AK8" s="86" t="n"/>
       <c r="AL8" s="81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AM8" s="36" t="n"/>
       <c r="AN8" s="36" t="n"/>
@@ -1731,7 +1731,7 @@
       <c r="AK9" s="86" t="n"/>
       <c r="AL9" s="81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AM9" s="36" t="n"/>
@@ -1809,7 +1809,7 @@
       <c r="AK10" s="86" t="n"/>
       <c r="AL10" s="81" t="inlineStr">
         <is>
-          <t>0...50</t>
+          <t>1...2</t>
         </is>
       </c>
       <c r="AM10" s="36" t="n"/>
@@ -2016,7 +2016,7 @@
       <c r="AY13" s="115" t="n"/>
       <c r="AZ13" s="82" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BA13" s="52" t="n"/>
@@ -2385,7 +2385,7 @@
       <c r="AK18" s="118" t="n"/>
       <c r="AL18" s="51" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AM18" s="52" t="n"/>
@@ -2656,7 +2656,7 @@
     <row r="22" ht="21" customFormat="1" customHeight="1" s="93">
       <c r="A22" s="126" t="inlineStr">
         <is>
-          <t>sadad</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B22" s="127" t="n"/>
@@ -3299,7 +3299,7 @@
     </row>
     <row r="30" ht="21" customFormat="1" customHeight="1" s="3">
       <c r="A30" s="58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" s="42" t="n"/>
       <c r="C30" s="42" t="n"/>
@@ -3311,7 +3311,7 @@
       <c r="I30" s="42" t="n"/>
       <c r="J30" s="43" t="n"/>
       <c r="K30" s="41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="42" t="n"/>
       <c r="M30" s="42" t="n"/>
@@ -3319,7 +3319,7 @@
       <c r="O30" s="42" t="n"/>
       <c r="P30" s="43" t="n"/>
       <c r="Q30" s="41" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="R30" s="42" t="n"/>
       <c r="S30" s="42" t="n"/>
@@ -3327,7 +3327,7 @@
       <c r="U30" s="42" t="n"/>
       <c r="V30" s="43" t="n"/>
       <c r="W30" s="41" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="X30" s="42" t="n"/>
       <c r="Y30" s="42" t="n"/>
@@ -3336,7 +3336,7 @@
       <c r="AB30" s="42" t="n"/>
       <c r="AC30" s="43" t="n"/>
       <c r="AD30" s="41" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="42" t="n"/>
       <c r="AF30" s="42" t="n"/>
@@ -3345,7 +3345,7 @@
       <c r="AI30" s="42" t="n"/>
       <c r="AJ30" s="43" t="n"/>
       <c r="AK30" s="41" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AL30" s="42" t="n"/>
       <c r="AM30" s="42" t="n"/>
@@ -3353,7 +3353,7 @@
       <c r="AO30" s="42" t="n"/>
       <c r="AP30" s="43" t="n"/>
       <c r="AQ30" s="38" t="n">
-        <v>1.09</v>
+        <v>0.4</v>
       </c>
       <c r="AR30" s="88" t="n"/>
       <c r="AS30" s="88" t="n"/>
@@ -3363,7 +3363,7 @@
       <c r="AW30" s="88" t="n"/>
       <c r="AX30" s="89" t="n"/>
       <c r="AY30" s="38" t="n">
-        <v>0.0900000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="AZ30" s="88" t="n"/>
       <c r="BA30" s="88" t="n"/>
@@ -3374,7 +3374,7 @@
       <c r="BF30" s="88" t="n"/>
       <c r="BG30" s="89" t="n"/>
       <c r="BH30" s="135" t="n">
-        <v>0.75</v>
+        <v>0.02</v>
       </c>
       <c r="BI30" s="88" t="n"/>
       <c r="BJ30" s="88" t="n"/>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="31" ht="21" customFormat="1" customHeight="1" s="3">
       <c r="A31" s="58" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B31" s="42" t="n"/>
       <c r="C31" s="42" t="n"/>
@@ -3399,7 +3399,7 @@
       <c r="I31" s="42" t="n"/>
       <c r="J31" s="43" t="n"/>
       <c r="K31" s="41" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="L31" s="42" t="n"/>
       <c r="M31" s="42" t="n"/>
@@ -3407,7 +3407,7 @@
       <c r="O31" s="42" t="n"/>
       <c r="P31" s="43" t="n"/>
       <c r="Q31" s="41" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="R31" s="42" t="n"/>
       <c r="S31" s="42" t="n"/>
@@ -3415,7 +3415,7 @@
       <c r="U31" s="42" t="n"/>
       <c r="V31" s="43" t="n"/>
       <c r="W31" s="41" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="X31" s="42" t="n"/>
       <c r="Y31" s="42" t="n"/>
@@ -3424,7 +3424,7 @@
       <c r="AB31" s="42" t="n"/>
       <c r="AC31" s="43" t="n"/>
       <c r="AD31" s="41" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="AE31" s="42" t="n"/>
       <c r="AF31" s="42" t="n"/>
@@ -3433,7 +3433,7 @@
       <c r="AI31" s="42" t="n"/>
       <c r="AJ31" s="43" t="n"/>
       <c r="AK31" s="41" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AL31" s="42" t="n"/>
       <c r="AM31" s="42" t="n"/>
@@ -3441,7 +3441,7 @@
       <c r="AO31" s="42" t="n"/>
       <c r="AP31" s="43" t="n"/>
       <c r="AQ31" s="38" t="n">
-        <v>20.4</v>
+        <v>1.4</v>
       </c>
       <c r="AR31" s="88" t="n"/>
       <c r="AS31" s="88" t="n"/>
@@ -3451,7 +3451,7 @@
       <c r="AW31" s="88" t="n"/>
       <c r="AX31" s="89" t="n"/>
       <c r="AY31" s="38" t="n">
-        <v>0.3999999999999986</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AZ31" s="88" t="n"/>
       <c r="BA31" s="88" t="n"/>
@@ -3462,7 +3462,7 @@
       <c r="BF31" s="88" t="n"/>
       <c r="BG31" s="89" t="n"/>
       <c r="BH31" s="135" t="n">
-        <v>0.75</v>
+        <v>0.02</v>
       </c>
       <c r="BI31" s="88" t="n"/>
       <c r="BJ31" s="88" t="n"/>
@@ -3474,7 +3474,9 @@
       <c r="BP31" s="89" t="n"/>
     </row>
     <row r="32" ht="21" customFormat="1" customHeight="1" s="3">
-      <c r="A32" s="58" t="n"/>
+      <c r="A32" s="58" t="n">
+        <v>3</v>
+      </c>
       <c r="B32" s="42" t="n"/>
       <c r="C32" s="42" t="n"/>
       <c r="D32" s="42" t="n"/>
@@ -3484,39 +3486,51 @@
       <c r="H32" s="42" t="n"/>
       <c r="I32" s="42" t="n"/>
       <c r="J32" s="43" t="n"/>
-      <c r="K32" s="41" t="n"/>
+      <c r="K32" s="41" t="n">
+        <v>3</v>
+      </c>
       <c r="L32" s="42" t="n"/>
       <c r="M32" s="42" t="n"/>
       <c r="N32" s="42" t="n"/>
       <c r="O32" s="42" t="n"/>
       <c r="P32" s="43" t="n"/>
-      <c r="Q32" s="41" t="n"/>
+      <c r="Q32" s="41" t="n">
+        <v>2</v>
+      </c>
       <c r="R32" s="42" t="n"/>
       <c r="S32" s="42" t="n"/>
       <c r="T32" s="42" t="n"/>
       <c r="U32" s="42" t="n"/>
       <c r="V32" s="43" t="n"/>
-      <c r="W32" s="41" t="n"/>
+      <c r="W32" s="41" t="n">
+        <v>3</v>
+      </c>
       <c r="X32" s="42" t="n"/>
       <c r="Y32" s="42" t="n"/>
       <c r="Z32" s="42" t="n"/>
       <c r="AA32" s="42" t="n"/>
       <c r="AB32" s="42" t="n"/>
       <c r="AC32" s="43" t="n"/>
-      <c r="AD32" s="41" t="n"/>
+      <c r="AD32" s="41" t="n">
+        <v>2</v>
+      </c>
       <c r="AE32" s="42" t="n"/>
       <c r="AF32" s="42" t="n"/>
       <c r="AG32" s="42" t="n"/>
       <c r="AH32" s="42" t="n"/>
       <c r="AI32" s="42" t="n"/>
       <c r="AJ32" s="43" t="n"/>
-      <c r="AK32" s="41" t="n"/>
+      <c r="AK32" s="41" t="n">
+        <v>3</v>
+      </c>
       <c r="AL32" s="42" t="n"/>
       <c r="AM32" s="42" t="n"/>
       <c r="AN32" s="42" t="n"/>
       <c r="AO32" s="42" t="n"/>
       <c r="AP32" s="43" t="n"/>
-      <c r="AQ32" s="38" t="n"/>
+      <c r="AQ32" s="38" t="n">
+        <v>2.6</v>
+      </c>
       <c r="AR32" s="88" t="n"/>
       <c r="AS32" s="88" t="n"/>
       <c r="AT32" s="88" t="n"/>
@@ -3524,7 +3538,9 @@
       <c r="AV32" s="88" t="n"/>
       <c r="AW32" s="88" t="n"/>
       <c r="AX32" s="89" t="n"/>
-      <c r="AY32" s="38" t="n"/>
+      <c r="AY32" s="38" t="n">
+        <v>0.3999999999999999</v>
+      </c>
       <c r="AZ32" s="88" t="n"/>
       <c r="BA32" s="88" t="n"/>
       <c r="BB32" s="88" t="n"/>
@@ -3533,7 +3549,9 @@
       <c r="BE32" s="88" t="n"/>
       <c r="BF32" s="88" t="n"/>
       <c r="BG32" s="89" t="n"/>
-      <c r="BH32" s="135" t="n"/>
+      <c r="BH32" s="135" t="n">
+        <v>0.02</v>
+      </c>
       <c r="BI32" s="88" t="n"/>
       <c r="BJ32" s="88" t="n"/>
       <c r="BK32" s="88" t="n"/>
@@ -3802,7 +3820,7 @@
       <c r="AL36" s="45" t="n"/>
       <c r="AM36" s="35" t="inlineStr">
         <is>
-          <t>соответствует</t>
+          <t>не соответствует</t>
         </is>
       </c>
       <c r="AN36" s="36" t="n"/>
@@ -3850,7 +3868,7 @@
       </c>
       <c r="J38" s="112" t="inlineStr">
         <is>
-          <t>соответствует</t>
+          <t>не соответствует</t>
         </is>
       </c>
       <c r="K38" s="113" t="n"/>
@@ -4130,7 +4148,11 @@
       <c r="S43" s="34" t="n"/>
       <c r="T43" s="34" t="n"/>
       <c r="U43" s="34" t="n"/>
-      <c r="V43" s="109" t="inlineStr"/>
+      <c r="V43" s="109" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
       <c r="W43" s="56" t="n"/>
       <c r="X43" s="56" t="n"/>
       <c r="Y43" s="56" t="n"/>
@@ -4454,6 +4476,7 @@
       <c r="BP53" s="93" t="n"/>
     </row>
   </sheetData>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="E973"/>
   <mergeCells count="136">
     <mergeCell ref="AD32:AJ32"/>
     <mergeCell ref="A20:BP20"/>
